--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1156 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_20</t>
+          <t>model_18_5_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9644783692355851</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7630729966868914</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9740534187174212</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5913779592594615</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9154823780962688</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2375333084837128</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H2" t="n">
-        <v>1.584331962103294</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3782006821436185</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J2" t="n">
-        <v>1.077174775245702</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7276877948905804</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L2" t="n">
-        <v>1.852293499199174</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4873738898255761</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N2" t="n">
-        <v>1.065578395257381</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5081224053184866</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P2" t="n">
-        <v>76.87489483818763</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q2" t="n">
-        <v>121.9733003583111</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_19</t>
+          <t>model_18_5_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9646954327201933</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7629511319065295</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D3" t="n">
-        <v>0.973859143046973</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5984743650933457</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9164042993245248</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2360818039626519</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H3" t="n">
-        <v>1.58514687245071</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3810324691250034</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J3" t="n">
-        <v>1.058467831916572</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7197501505207877</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L3" t="n">
-        <v>1.83320390781791</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4858825001609463</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N3" t="n">
-        <v>1.065177662670412</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5065675241082312</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P3" t="n">
-        <v>76.88715381411477</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q3" t="n">
-        <v>121.9855593342382</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_18</t>
+          <t>model_18_5_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9649050023709064</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7627822434673253</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9736284106270602</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6062529235728413</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9173997733809536</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2346804107433541</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H4" t="n">
-        <v>1.586276230221329</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3843956543420972</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J4" t="n">
-        <v>1.037962655625295</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7111792240716441</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L4" t="n">
-        <v>1.811916761312486</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4844382424451584</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N4" t="n">
-        <v>1.064790764853711</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5050617813514566</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P4" t="n">
-        <v>76.89906128939732</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q4" t="n">
-        <v>121.9974668095207</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_17</t>
+          <t>model_18_5_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9650994406531634</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7625546900905241</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9733549966219044</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6147649475592759</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9184714181567006</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2333802010545949</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H5" t="n">
-        <v>1.587797880699785</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3883809717961146</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J5" t="n">
-        <v>1.015523979757843</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7019524757769789</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L5" t="n">
-        <v>1.788193915613337</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4830944018042384</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N5" t="n">
-        <v>1.064431801871083</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5036607306323191</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P5" t="n">
-        <v>76.91017278222859</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q5" t="n">
-        <v>122.008578302352</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_16</t>
+          <t>model_18_5_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9652688713311836</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C6" t="n">
-        <v>0.762254519517551</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9730325088235362</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6240569098978321</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9196209110807723</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2322472173305184</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H6" t="n">
-        <v>1.589805122703414</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3930815951266998</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9910292965403481</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6920554631502773</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L6" t="n">
-        <v>1.761791981429386</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M6" t="n">
-        <v>0.481920343345784</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N6" t="n">
-        <v>1.0641190067732</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5024366900746523</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P6" t="n">
-        <v>76.91990576542807</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q6" t="n">
-        <v>122.0183112855515</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_15</t>
+          <t>model_18_5_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9654006185323741</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7618649134305774</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9726536613539812</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6341784632993699</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9208497000486821</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2313662231895171</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H7" t="n">
-        <v>1.592410420400978</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3986037242216141</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9643477157066758</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6814757199641448</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L7" t="n">
-        <v>1.732463487967096</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4810054294802888</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N7" t="n">
-        <v>1.063875781171002</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O7" t="n">
-        <v>0.50148282643177</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P7" t="n">
-        <v>76.9275068841571</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q7" t="n">
-        <v>122.0259124042805</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_14</t>
+          <t>model_18_5_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9654787283774258</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7613662786258172</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9722112073007729</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E8" t="n">
-        <v>0.645171611643842</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9221580659337114</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2308439022959941</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H8" t="n">
-        <v>1.595744793636412</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4050529910023952</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J8" t="n">
-        <v>0.935368510190157</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6702108279293034</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L8" t="n">
-        <v>1.699944399176731</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4804621757183328</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N8" t="n">
-        <v>1.063731578380137</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5009164452324772</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P8" t="n">
-        <v>76.93202708903415</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q8" t="n">
-        <v>122.0304326091576</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_13</t>
+          <t>model_18_5_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9654835236253201</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7607353742009328</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9716978975873618</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6570771216775511</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9235461423615432</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2308118364512444</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H9" t="n">
-        <v>1.599963654430661</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4125350589345347</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9039842141509499</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6582596365427422</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L9" t="n">
-        <v>1.663989915414815</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4804288047684531</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N9" t="n">
-        <v>1.063722725614794</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5008816536121737</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P9" t="n">
-        <v>76.93230492242479</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q9" t="n">
-        <v>122.0307104425482</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_12</t>
+          <t>model_18_5_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.965390393788085</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7599451297138898</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9711070252089575</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6699263820647183</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9250130113888293</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G10" t="n">
-        <v>0.231434596101659</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H10" t="n">
-        <v>1.605248022954259</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4211476901763386</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8701120834539942</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6456300491997029</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L10" t="n">
-        <v>1.624362078026489</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4810764971412124</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N10" t="n">
-        <v>1.063894657621997</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5015569195901496</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P10" t="n">
-        <v>76.92691593522366</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.0253214553471</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_11</t>
+          <t>model_18_5_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9651692421197591</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7589637940270786</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9704330015617036</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6837451280429501</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9265579476768778</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2329134383260639</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H11" t="n">
-        <v>1.611810219210601</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4309723449312793</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8336842770480961</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6323283109896878</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L11" t="n">
-        <v>1.580863079009688</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4826110632031386</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N11" t="n">
-        <v>1.06430293762506</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5031568153063216</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P11" t="n">
-        <v>76.91417680754664</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.0125823276701</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_10</t>
+          <t>model_18_5_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9647831534742662</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7577546005781017</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9696723749436161</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E12" t="n">
-        <v>0.69854446599149</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9281796625744739</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2354952148762492</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H12" t="n">
-        <v>1.619896101371733</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4420593356482585</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7946715172380447</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6183655170635038</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L12" t="n">
-        <v>1.533346849137372</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4852784920808352</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N12" t="n">
-        <v>1.065015716662893</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5059378021536807</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P12" t="n">
-        <v>76.89212936945783</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q12" t="n">
-        <v>121.9905348895813</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_9</t>
+          <t>model_18_5_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9641875921501236</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7562748270104647</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9688240870389483</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7143329698500266</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9298786232324436</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2394777361930992</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H13" t="n">
-        <v>1.629791354032253</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4544240884727453</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7530512021310485</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6037376453018968</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L13" t="n">
-        <v>1.481738087148903</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4893646249915283</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N13" t="n">
-        <v>1.06611521449208</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5101978902018433</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P13" t="n">
-        <v>76.85858965195989</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q13" t="n">
-        <v>121.9569951720833</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_8</t>
+          <t>model_18_5_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9633275578801207</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7544740935451134</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9678897429967203</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7311004227448038</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9316545927302666</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2452287893167019</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H14" t="n">
-        <v>1.641832867006672</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4680432065476476</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7088502645833772</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5884467355655125</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L14" t="n">
-        <v>1.426089142478928</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4952058050111104</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N14" t="n">
-        <v>1.067702970067469</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5162877413477686</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P14" t="n">
-        <v>76.81112734048669</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.9095328606101</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_7</t>
+          <t>model_18_5_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9621360283915416</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7522927277952376</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9668736007810026</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7488315398907841</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9335088459624773</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2531965524933195</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H15" t="n">
-        <v>1.656419669820357</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4828546252449293</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6621089970492942</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5724818111471117</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L15" t="n">
-        <v>1.366613285125369</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M15" t="n">
-        <v>0.503186399352486</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N15" t="n">
-        <v>1.069902716815616</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5246080861123642</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P15" t="n">
-        <v>76.74717840909999</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q15" t="n">
-        <v>121.8455839292234</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_6</t>
+          <t>model_18_5_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9605303131048575</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C16" t="n">
-        <v>0.74965820192941</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9657809728307187</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7675013847678867</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F16" t="n">
-        <v>0.935442062336272</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2639339780090147</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H16" t="n">
-        <v>1.674036756416022</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4987809097764486</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6128931350685777</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5558370224225131</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L16" t="n">
-        <v>1.30378668066566</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5137450515664503</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N16" t="n">
-        <v>1.072867114267955</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5356162420105003</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P16" t="n">
-        <v>76.66411258082211</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q16" t="n">
-        <v>121.7625181009455</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_5</t>
+          <t>model_18_5_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9584071816649162</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7464805686196598</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9646144677078504</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7870823437631566</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9374522226670328</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2781313677240235</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H17" t="n">
-        <v>1.695285604989978</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I17" t="n">
-        <v>0.515784037409647</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5612754713062403</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5385297543579437</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L17" t="n">
-        <v>1.238451047979207</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5273816148900372</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N17" t="n">
-        <v>1.076786741541693</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5498333420663498</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P17" t="n">
-        <v>76.55932346227245</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.6577289823959</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_4</t>
+          <t>model_18_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9556361076978406</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C18" t="n">
-        <v>0.742645540721156</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9633669846015003</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8075511761352776</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9395297441548315</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2966615521014811</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H18" t="n">
-        <v>1.720930454205953</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I18" t="n">
-        <v>0.533967510470933</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5073172710338729</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5206425138483141</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L18" t="n">
-        <v>1.17203396714703</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5446664594974443</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N18" t="n">
-        <v>1.081902570403987</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5678540382932552</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P18" t="n">
-        <v>76.43032669036008</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q18" t="n">
-        <v>121.5287322104835</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_3</t>
+          <t>model_18_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9520498397652416</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7380035984447715</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9620095089190617</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8289000813284336</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F19" t="n">
-        <v>0.94164893084287</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3206429422800156</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H19" t="n">
-        <v>1.751971143582315</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5537542493672963</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4510390974152803</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5023965403667504</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L19" t="n">
-        <v>1.106903528570622</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5662534258439551</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N19" t="n">
-        <v>1.088523372741092</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5903600064883177</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P19" t="n">
-        <v>76.27485420859058</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q19" t="n">
-        <v>121.373259728714</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_2</t>
+          <t>model_18_5_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9474314367333209</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7323565733599859</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9604715454019451</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8511587935630197</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9437545728908491</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3515262246202601</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H20" t="n">
-        <v>1.789732826326435</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5761718019901556</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J20" t="n">
-        <v>0.39236256761993</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4842671848050429</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L20" t="n">
-        <v>1.046946531428159</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5928964704063098</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N20" t="n">
-        <v>1.097049655261561</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6181373006163972</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P20" t="n">
-        <v>76.09094192555087</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.1893474456743</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_1</t>
+          <t>model_18_5_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.941494411944746</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7254375500798075</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9586088665649564</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8744120850707877</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9457376234011833</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3912271367189454</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H21" t="n">
-        <v>1.836000366860162</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I21" t="n">
-        <v>0.603322446581496</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J21" t="n">
-        <v>0.331064212278625</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4671933294300604</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9984440760268646</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6254815238829564</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N21" t="n">
-        <v>1.1080103164097</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6521095672799043</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P21" t="n">
-        <v>75.87693395067271</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q21" t="n">
-        <v>120.9753394707961</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_0</t>
+          <t>model_18_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.933855650550487</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7168860592668358</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9561584918618835</v>
+        <v>0.9778201568565887</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8987853210475678</v>
+        <v>0.8097653136555514</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9473946520625532</v>
+        <v>0.8648662959483421</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4423075693356174</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H22" t="n">
-        <v>1.893184225302498</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6390394211654211</v>
+        <v>0.0177496122277409</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2668135542922899</v>
+        <v>0.9719354387791824</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4529264877288555</v>
+        <v>0.4948424447787041</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9711486358340136</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6650620793096066</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N22" t="n">
-        <v>1.122112645137562</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O22" t="n">
-        <v>0.693375148894112</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P22" t="n">
-        <v>75.63149956135227</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.7299050814757</v>
+        <v>120.6115918251162</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_18_5_2</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9298247212236502</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7246052329558914</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9778201568565887</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8097653136555514</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8648662959483421</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.469262412304898</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.841566075300257</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0177496122277409</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.9719354387791824</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4948424447787041</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3376508542801637</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6850273077074358</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.129554360817876</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.7141903383985572</v>
+      </c>
+      <c r="P23" t="n">
+        <v>75.51318630499273</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>120.6115918251162</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_18_5_1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9298247212236502</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7246052329558914</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9778201568565887</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8097653136555514</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8648662959483421</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.469262412304898</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.841566075300257</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0177496122277409</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9719354387791824</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4948424447787041</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.3376508542801637</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6850273077074358</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.129554360817876</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.7141903383985572</v>
+      </c>
+      <c r="P24" t="n">
+        <v>75.51318630499273</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>120.6115918251162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_18_5_11</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9298247212236502</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7246052329558914</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9778201568565887</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8097653136555514</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8648662959483421</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.469262412304898</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.841566075300257</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0177496122277409</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9719354387791824</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4948424447787041</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3376508542801637</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.6850273077074358</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.129554360817876</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.7141903383985572</v>
+      </c>
+      <c r="P25" t="n">
+        <v>75.51318630499273</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>120.6115918251162</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_18_5_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9298247212236502</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7246052329558914</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9778201568565887</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8097653136555514</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.8648662959483421</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.469262412304898</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.841566075300257</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0177496122277409</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9719354387791824</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4948424447787041</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.3376508542801637</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6850273077074358</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.129554360817876</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.7141903383985572</v>
+      </c>
+      <c r="P26" t="n">
+        <v>75.51318630499273</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>120.6115918251162</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,56 +518,56 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_0</t>
+          <t>model_18_5_21</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9749064349910411</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7254445569535344</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9701368876047541</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.4809350469831141</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.930027371566742</v>
       </c>
       <c r="G2" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1678007847601507</v>
       </c>
       <c r="H2" t="n">
-        <v>1.841566075300257</v>
+        <v>1.835953511863286</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2263638532651008</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.7915080546362419</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.5089359539506714</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.19076976873864</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4096349408438576</v>
       </c>
       <c r="N2" t="n">
-        <v>1.129554360817876</v>
+        <v>1.046326581555001</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4270739483368073</v>
       </c>
       <c r="P2" t="n">
-        <v>75.51318630499273</v>
+        <v>77.56995561640204</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.6115918251162</v>
+        <v>122.6683611365255</v>
       </c>
     </row>
     <row r="3">
@@ -577,162 +577,162 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9748907054978656</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7254406533215594</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9702622987245217</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.4760353198792827</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9295791108174639</v>
       </c>
       <c r="G3" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1679059679534427</v>
       </c>
       <c r="H3" t="n">
-        <v>1.841566075300257</v>
+        <v>1.835979615468278</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2254132308404469</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.7989795154730052</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.5121963147111662</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.180878301486299</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4097633072316782</v>
       </c>
       <c r="N3" t="n">
-        <v>1.129554360817876</v>
+        <v>1.046355620619325</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4272077795475124</v>
       </c>
       <c r="P3" t="n">
-        <v>75.51318630499273</v>
+        <v>77.56870234168078</v>
       </c>
       <c r="Q3" t="n">
-        <v>120.6115918251162</v>
+        <v>122.6671078618042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_21</t>
+          <t>model_18_5_20</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9749079620563486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7254344237387023</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9699991397238377</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.486406967246206</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9305291925482299</v>
       </c>
       <c r="G4" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1677905732674086</v>
       </c>
       <c r="H4" t="n">
-        <v>1.841566075300257</v>
+        <v>1.836021272717528</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2274079889429454</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.7831640719855318</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.5052860304642386</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.201623051750456</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4096224765163755</v>
       </c>
       <c r="N4" t="n">
-        <v>1.129554360817876</v>
+        <v>1.04632376235751</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4270609533770995</v>
       </c>
       <c r="P4" t="n">
-        <v>75.51318630499273</v>
+        <v>77.57007732981928</v>
       </c>
       <c r="Q4" t="n">
-        <v>120.6115918251162</v>
+        <v>122.6684828499427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_20</t>
+          <t>model_18_5_23</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9748648820612091</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7254264301801269</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9703761296504197</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.4716453066303747</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9291782309774946</v>
       </c>
       <c r="G5" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1680786493932705</v>
       </c>
       <c r="H5" t="n">
-        <v>1.841566075300257</v>
+        <v>1.836074725680529</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2245503868519846</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.8056737274907397</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.5151120571713621</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.171880047076585</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4099739618479087</v>
       </c>
       <c r="N5" t="n">
-        <v>1.129554360817876</v>
+        <v>1.046403294656229</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.427427402166871</v>
       </c>
       <c r="P5" t="n">
-        <v>75.51318630499273</v>
+        <v>77.56664651595403</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.6115918251162</v>
+        <v>122.6650520360775</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9748900974475387</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.72540555995838</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9698486672929476</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.4925221374594438</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.93109181224975</v>
       </c>
       <c r="G6" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1679100339887788</v>
       </c>
       <c r="H6" t="n">
-        <v>1.841566075300257</v>
+        <v>1.836214284949448</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2285485773322473</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.7738392149495917</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.5011938961409195</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.213507398429133</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4097682686455587</v>
       </c>
       <c r="N6" t="n">
-        <v>1.129554360817876</v>
+        <v>1.046356743173775</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4272129521790534</v>
       </c>
       <c r="P6" t="n">
-        <v>75.51318630499273</v>
+        <v>77.56865390997636</v>
       </c>
       <c r="Q6" t="n">
-        <v>120.6115918251162</v>
+        <v>122.6670594300998</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9748462757020514</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7253521172600306</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9696851214634357</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.4993620935148663</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9317235959672062</v>
       </c>
       <c r="G7" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1682030702026326</v>
       </c>
       <c r="H7" t="n">
-        <v>1.841566075300257</v>
+        <v>1.836571656519392</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2297882627228315</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.7634091516602897</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.4965987071915606</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.226487628408559</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4101256761074983</v>
       </c>
       <c r="N7" t="n">
-        <v>1.129554360817876</v>
+        <v>1.046437644857751</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4275855752165832</v>
       </c>
       <c r="P7" t="n">
-        <v>75.51318630499273</v>
+        <v>77.56516655664862</v>
       </c>
       <c r="Q7" t="n">
-        <v>120.6115918251162</v>
+        <v>122.663572076772</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9747681578605019</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7252668464961232</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9695089808893629</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.5070166886839453</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9324341969003336</v>
       </c>
       <c r="G8" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1687254445687741</v>
       </c>
       <c r="H8" t="n">
-        <v>1.841566075300257</v>
+        <v>1.837141862510277</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2311234168934928</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.7517368673034055</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.4914302524417953</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.240616504562398</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4107620291224277</v>
       </c>
       <c r="N8" t="n">
-        <v>1.129554360817876</v>
+        <v>1.046581862411381</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4282490190967904</v>
       </c>
       <c r="P8" t="n">
-        <v>75.51318630499273</v>
+        <v>77.55896494696833</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.6115918251162</v>
+        <v>122.6573704670918</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9746453870745215</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7251408630957876</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9693214064998271</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.5155924173196289</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9332354288712161</v>
       </c>
       <c r="G9" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1695464133799322</v>
       </c>
       <c r="H9" t="n">
-        <v>1.841566075300257</v>
+        <v>1.83798431408842</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2325452399448612</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.7386599715313703</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.4856026057381159</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.256157487671698</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4117601405915005</v>
       </c>
       <c r="N9" t="n">
-        <v>1.129554360817876</v>
+        <v>1.046808516170114</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4292896222374772</v>
       </c>
       <c r="P9" t="n">
-        <v>75.51318630499273</v>
+        <v>77.54925712878916</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.6115918251162</v>
+        <v>122.6476626489126</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9744649908003916</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7249633688384993</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9691246328518647</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.5252101961034426</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9341410859599385</v>
       </c>
       <c r="G10" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1707527240956871</v>
       </c>
       <c r="H10" t="n">
-        <v>1.841566075300257</v>
+        <v>1.839171219004194</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2340367938252562</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.7239940817793215</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.4790154378022889</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.27328864306177</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4132223664029902</v>
       </c>
       <c r="N10" t="n">
-        <v>1.129554360817876</v>
+        <v>1.047141555445431</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4308140980289868</v>
       </c>
       <c r="P10" t="n">
-        <v>75.51318630499273</v>
+        <v>77.53507765390046</v>
       </c>
       <c r="Q10" t="n">
-        <v>120.6115918251162</v>
+        <v>122.6334831740239</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9742109326416519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7247210836126688</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9689233988074527</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.5360068232846333</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9351679891096402</v>
       </c>
       <c r="G11" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1724516121730101</v>
       </c>
       <c r="H11" t="n">
-        <v>1.841566075300257</v>
+        <v>1.840791381424943</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2355621577290022</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.7075305981109508</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.4715464038984546</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.291673898833464</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4152729369619577</v>
       </c>
       <c r="N11" t="n">
-        <v>1.129554360817876</v>
+        <v>1.047610585892335</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4329519656219157</v>
       </c>
       <c r="P11" t="n">
-        <v>75.51318630499273</v>
+        <v>77.51527718200548</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.6115918251162</v>
+        <v>122.6136827021289</v>
       </c>
     </row>
     <row r="12">
@@ -1072,162 +1072,162 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.973863134673208</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7243983354785506</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9687246273381395</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.5481413530868792</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.936336429485331</v>
       </c>
       <c r="G12" t="n">
-        <v>0.469262412304898</v>
+        <v>0.174777338789457</v>
       </c>
       <c r="H12" t="n">
-        <v>1.841566075300257</v>
+        <v>1.842949599683909</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2370688551929973</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.6890269830587732</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.4630479191258852</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.311262655577326</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4180637975111657</v>
       </c>
       <c r="N12" t="n">
-        <v>1.129554360817876</v>
+        <v>1.048252674449462</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4358616388825814</v>
       </c>
       <c r="P12" t="n">
-        <v>75.51318630499273</v>
+        <v>77.48848492991475</v>
       </c>
       <c r="Q12" t="n">
-        <v>120.6115918251162</v>
+        <v>122.5868904500382</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_23</t>
+          <t>model_18_5_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9733970535380845</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7239761576690266</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9685402183005219</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.5617941764190741</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9376715068305082</v>
       </c>
       <c r="G13" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1778940254861344</v>
       </c>
       <c r="H13" t="n">
-        <v>1.841566075300257</v>
+        <v>1.845772704640147</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.238466684721933</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.6682081634232924</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.4533374240726127</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.331912212529598</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4217748516520804</v>
       </c>
       <c r="N13" t="n">
-        <v>1.129554360817876</v>
+        <v>1.04911313192969</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4397306802812159</v>
       </c>
       <c r="P13" t="n">
-        <v>75.51318630499273</v>
+        <v>77.45313453685218</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.6115918251162</v>
+        <v>122.5515400569756</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_12</t>
+          <t>model_18_5_11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9727822927860564</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7234324009455479</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9683877856987473</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.5771725796726821</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.939204132065627</v>
       </c>
       <c r="G14" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1820049334656588</v>
       </c>
       <c r="H14" t="n">
-        <v>1.841566075300257</v>
+        <v>1.849408808353818</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2396221313024587</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.6447580538138328</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.4421900925581458</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.353392836781437</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4266203622257835</v>
       </c>
       <c r="N14" t="n">
-        <v>1.129554360817876</v>
+        <v>1.050248074856511</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4447824742716313</v>
       </c>
       <c r="P14" t="n">
-        <v>75.51318630499273</v>
+        <v>77.40744297063712</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.6115918251162</v>
+        <v>122.5058484907605</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9719816729334618</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7227412623472215</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9682939106458831</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.594512339306685</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9409728716467936</v>
       </c>
       <c r="G15" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1873586821064739</v>
       </c>
       <c r="H15" t="n">
-        <v>1.841566075300257</v>
+        <v>1.854030455343228</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2403337087968118</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.6183171251092451</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.4293254169530284</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.375315721011912</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4328494912859133</v>
       </c>
       <c r="N15" t="n">
-        <v>1.129554360817876</v>
+        <v>1.051726142276686</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4512767902519255</v>
       </c>
       <c r="P15" t="n">
-        <v>75.51318630499273</v>
+        <v>77.34946082635001</v>
       </c>
       <c r="Q15" t="n">
-        <v>120.6115918251162</v>
+        <v>122.4478663464734</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9709495231129118</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7218730821248451</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.968297836206051</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.6140756469537644</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9430256589549862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1942606727091051</v>
       </c>
       <c r="H16" t="n">
-        <v>1.841566075300257</v>
+        <v>1.859835980487861</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2403039528586472</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.5884855684071566</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.4143947606329019</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.397107049397545</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4407501250244917</v>
       </c>
       <c r="N16" t="n">
-        <v>1.129554360817876</v>
+        <v>1.053631649637701</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4595137703253217</v>
       </c>
       <c r="P16" t="n">
-        <v>75.51318630499273</v>
+        <v>77.27710869616458</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.6115918251162</v>
+        <v>122.375514216288</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9696298420123329</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7207945070819833</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9684560420379825</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.636151787615669</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9454222355499853</v>
       </c>
       <c r="G17" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2030853863052487</v>
       </c>
       <c r="H17" t="n">
-        <v>1.841566075300257</v>
+        <v>1.867048416765859</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2391047449110279</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.5548222608622688</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.3969636018655125</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.417923071068466</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4506499598416145</v>
       </c>
       <c r="N17" t="n">
-        <v>1.129554360817876</v>
+        <v>1.056067983977232</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4698350616060926</v>
       </c>
       <c r="P17" t="n">
-        <v>75.51318630499273</v>
+        <v>77.18825753236744</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.6115918251162</v>
+        <v>122.2866630524909</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9679536229840732</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7194682916186883</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9688480768767326</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.6610416733824189</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9482356445228247</v>
       </c>
       <c r="G18" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2142942706655009</v>
       </c>
       <c r="H18" t="n">
-        <v>1.841566075300257</v>
+        <v>1.875916825675574</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2361331016496328</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.5168683497980449</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.3765006721241904</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.436580375024745</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4629192917404727</v>
       </c>
       <c r="N18" t="n">
-        <v>1.129554360817876</v>
+        <v>1.05916254218325</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4826267243649036</v>
       </c>
       <c r="P18" t="n">
-        <v>75.51318630499273</v>
+        <v>77.08081022394397</v>
       </c>
       <c r="Q18" t="n">
-        <v>120.6115918251162</v>
+        <v>122.1792157440674</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9658345388221952</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7178531956919065</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9695812482763039</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.6890370572784117</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9515523223834138</v>
       </c>
       <c r="G19" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2284645962134643</v>
       </c>
       <c r="H19" t="n">
-        <v>1.841566075300257</v>
+        <v>1.886716979574797</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2305756265641773</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.4741789489484536</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.3523772877563155</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.451529020741996</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4779797027212184</v>
       </c>
       <c r="N19" t="n">
-        <v>1.129554360817876</v>
+        <v>1.063074697559024</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4983282882204482</v>
       </c>
       <c r="P19" t="n">
-        <v>75.51318630499273</v>
+        <v>76.95274804127432</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.6115918251162</v>
+        <v>122.0511535613977</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9631628832871522</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7159019474936205</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9707941691583555</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.7203670273396924</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9554685480770545</v>
       </c>
       <c r="G20" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2463299690781394</v>
       </c>
       <c r="H20" t="n">
-        <v>1.841566075300257</v>
+        <v>1.899764985261407</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2213816269256598</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.4264047281868966</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.3238931775562782</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.46080801093002</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.496316400170435</v>
       </c>
       <c r="N20" t="n">
-        <v>1.129554360817876</v>
+        <v>1.068006984700642</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.5174456168422745</v>
       </c>
       <c r="P20" t="n">
-        <v>75.51318630499273</v>
+        <v>76.80216660824713</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.6115918251162</v>
+        <v>121.9005721283706</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9597942694082359</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7135558847668244</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9726483895419014</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.7551152341413897</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9600772639834363</v>
       </c>
       <c r="G21" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2688559055974933</v>
       </c>
       <c r="H21" t="n">
-        <v>1.841566075300257</v>
+        <v>1.915453117518118</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.2073265456847325</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.3734181310224093</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.2903723383535709</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.462229703799898</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.5185131682006672</v>
       </c>
       <c r="N21" t="n">
-        <v>1.129554360817876</v>
+        <v>1.074225964169411</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.5405873472411978</v>
       </c>
       <c r="P21" t="n">
-        <v>75.51318630499273</v>
+        <v>76.62715941964979</v>
       </c>
       <c r="Q21" t="n">
-        <v>120.6115918251162</v>
+        <v>121.7255649397732</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9555321428517083</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7107308137825542</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9753040442918439</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.7930829698026552</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9654410839530034</v>
       </c>
       <c r="G22" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2973567655062815</v>
       </c>
       <c r="H22" t="n">
-        <v>1.841566075300257</v>
+        <v>1.934344380198188</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.187196552729461</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.3155221617077295</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.2513593572185953</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.453751778819101</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.5453042870785828</v>
       </c>
       <c r="N22" t="n">
-        <v>1.129554360817876</v>
+        <v>1.082094505504539</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.5685190195150079</v>
       </c>
       <c r="P22" t="n">
-        <v>75.51318630499273</v>
+        <v>76.42564526083771</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.6115918251162</v>
+        <v>121.5240507809611</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9501012995712038</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7072911954908325</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9788652667136059</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.8336163447430991</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9715457316387519</v>
       </c>
       <c r="G23" t="n">
-        <v>0.469262412304898</v>
+        <v>0.3336728395297486</v>
       </c>
       <c r="H23" t="n">
-        <v>1.841566075300257</v>
+        <v>1.957345123552917</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.1602023125091274</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.2537139187113882</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.2069580711293844</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.434232473479722</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.5776442153521045</v>
       </c>
       <c r="N23" t="n">
-        <v>1.129554360817876</v>
+        <v>1.092120677714701</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.602235725488014</v>
       </c>
       <c r="P23" t="n">
-        <v>75.51318630499273</v>
+        <v>76.19518857683398</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.6115918251162</v>
+        <v>121.2935940969574</v>
       </c>
     </row>
     <row r="24">
@@ -1732,162 +1732,107 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9431155375793403</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7030120755836746</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9833035853177289</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.8754385650190125</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9782425115766046</v>
       </c>
       <c r="G24" t="n">
-        <v>0.469262412304898</v>
+        <v>0.3803866621358161</v>
       </c>
       <c r="H24" t="n">
-        <v>1.841566075300257</v>
+        <v>1.985959618075618</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.1265596403070358</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.1899403504541614</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.1582499953805986</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.404193434158339</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.6167549449625971</v>
       </c>
       <c r="N24" t="n">
-        <v>1.129554360817876</v>
+        <v>1.105017469084295</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.6430114798283966</v>
       </c>
       <c r="P24" t="n">
-        <v>75.51318630499273</v>
+        <v>75.93313402332012</v>
       </c>
       <c r="Q24" t="n">
-        <v>120.6115918251162</v>
+        <v>121.0315395434435</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_11</t>
+          <t>model_18_5_0</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9340443666906619</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.6975371209715858</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9778201568565887</v>
+        <v>0.9883785476224318</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8097653136555514</v>
+        <v>0.9165130527337629</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8648662959483421</v>
+        <v>0.9851926602094053</v>
       </c>
       <c r="G25" t="n">
-        <v>0.469262412304898</v>
+        <v>0.4410456236373099</v>
       </c>
       <c r="H25" t="n">
-        <v>1.841566075300257</v>
+        <v>2.022570664776503</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0177496122277409</v>
+        <v>0.08809117770129024</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9719354387791824</v>
+        <v>0.127306979279081</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4948424447787041</v>
+        <v>0.1076990784901856</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.366296664474719</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.6641126588443483</v>
       </c>
       <c r="N25" t="n">
-        <v>1.129554360817876</v>
+        <v>1.121764246109547</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.6923853096340765</v>
       </c>
       <c r="P25" t="n">
-        <v>75.51318630499273</v>
+        <v>75.637213907853</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.6115918251162</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_18_5_24</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9298247212236502</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7246052329558914</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9778201568565887</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.8097653136555514</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.8648662959483421</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.469262412304898</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.841566075300257</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.0177496122277409</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.9719354387791824</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.4948424447787041</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.3376508542801637</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.6850273077074358</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.129554360817876</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.7141903383985572</v>
-      </c>
-      <c r="P26" t="n">
-        <v>75.51318630499273</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>120.6115918251162</v>
+        <v>120.7356194279764</v>
       </c>
     </row>
   </sheetData>
